--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42011.25487778679</v>
+        <v>55918.78125744943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1187187.818483151</v>
+        <v>4179101.575759708</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24674659.70906464</v>
+        <v>23277501.00355298</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4308392.212212673</v>
+        <v>4762417.742781037</v>
       </c>
     </row>
     <row r="11">
@@ -8690,22 +8692,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L11" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M11" t="n">
-        <v>245.6294943148315</v>
+        <v>78.8318885537511</v>
       </c>
       <c r="N11" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O11" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913582</v>
       </c>
       <c r="Q11" t="n">
         <v>137.5801139476182</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140312</v>
       </c>
       <c r="L12" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M12" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N12" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P12" t="n">
-        <v>142.8548531659551</v>
+        <v>45.801031517992</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286052</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>88.52321246794781</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8927,22 +8929,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L14" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M14" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N14" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O14" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q14" t="n">
         <v>137.5801139476182</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L15" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M15" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N15" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P15" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9164,22 +9166,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L17" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M17" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N17" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O17" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P17" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q17" t="n">
         <v>137.5801139476182</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L18" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M18" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N18" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P18" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M19" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N19" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O19" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9401,22 +9403,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L20" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M20" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N20" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O20" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P20" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q20" t="n">
         <v>137.5801139476182</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L21" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M21" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N21" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P21" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M22" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N22" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O22" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9638,22 +9640,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L23" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M23" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N23" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O23" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P23" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q23" t="n">
         <v>137.5801139476182</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L24" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M24" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N24" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P24" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M25" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N25" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O25" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9875,22 +9877,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L26" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M26" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N26" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O26" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q26" t="n">
         <v>137.5801139476182</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L27" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M27" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N27" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P27" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M28" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10112,22 +10114,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L29" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M29" t="n">
-        <v>245.6294943148315</v>
+        <v>78.8318885537511</v>
       </c>
       <c r="N29" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O29" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P29" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913582</v>
       </c>
       <c r="Q29" t="n">
         <v>137.5801139476182</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140312</v>
       </c>
       <c r="L30" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M30" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N30" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P30" t="n">
-        <v>142.8548531659551</v>
+        <v>45.801031517992</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286052</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>88.52321246794781</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10349,22 +10351,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L32" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M32" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N32" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O32" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P32" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q32" t="n">
         <v>137.5801139476182</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L33" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M33" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N33" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P33" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M34" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N34" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O34" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10586,22 +10588,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L35" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M35" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N35" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O35" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L36" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M36" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N36" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P36" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N37" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10823,22 +10825,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L38" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M38" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N38" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L39" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M39" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N39" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P39" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O40" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11060,22 +11062,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L41" t="n">
-        <v>255.8266834221102</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M41" t="n">
-        <v>245.6294943148315</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N41" t="n">
-        <v>243.9183330758522</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O41" t="n">
-        <v>246.758517458259</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>150.7517341174952</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L42" t="n">
-        <v>145.6199667947194</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M42" t="n">
-        <v>146.0777144456295</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N42" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>148.3080266862594</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P42" t="n">
-        <v>142.8548531659551</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11297,25 +11299,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L44" t="n">
-        <v>255.8266834221102</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M44" t="n">
-        <v>245.6294943148315</v>
+        <v>50.75625738522407</v>
       </c>
       <c r="N44" t="n">
-        <v>243.9183330758522</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>59.7677186643362</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>93.52675000186332</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11376,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>150.7517341174952</v>
+        <v>54.86578968612498</v>
       </c>
       <c r="L45" t="n">
-        <v>145.6199667947194</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M45" t="n">
-        <v>146.0777144456295</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>132.1878490032285</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>148.3080266862594</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P45" t="n">
-        <v>142.8548531659551</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>77.2804576278842</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23270,19 +23272,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H11" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414475</v>
       </c>
       <c r="I11" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J11" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K11" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23297,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068567</v>
       </c>
       <c r="R11" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S11" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T11" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H12" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I12" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J12" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S12" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T12" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H13" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I13" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J13" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K13" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L13" t="n">
-        <v>45.83348920913111</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R13" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S13" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T13" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,19 +23509,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H14" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I14" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J14" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K14" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23534,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R14" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S14" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T14" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H15" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I15" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J15" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S15" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T15" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H16" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I16" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J16" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K16" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L16" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R16" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S16" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T16" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,19 +23746,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H17" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I17" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J17" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K17" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23771,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R17" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S17" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T17" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H18" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I18" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J18" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S18" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T18" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H19" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I19" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J19" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K19" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L19" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R19" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S19" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T19" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,19 +23983,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H20" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I20" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J20" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K20" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24008,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R20" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S20" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T20" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H21" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I21" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J21" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S21" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T21" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H22" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I22" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J22" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K22" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L22" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R22" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S22" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T22" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,19 +24220,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H23" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I23" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J23" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K23" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24245,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R23" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S23" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T23" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H24" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I24" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J24" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S24" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T24" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H25" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I25" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J25" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K25" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L25" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R25" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S25" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T25" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,19 +24457,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H26" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I26" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J26" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K26" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24482,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R26" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S26" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T26" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H27" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I27" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J27" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S27" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T27" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H28" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I28" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J28" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K28" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L28" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R28" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S28" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T28" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,19 +24694,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H29" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414475</v>
       </c>
       <c r="I29" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J29" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K29" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24719,22 +24721,22 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068567</v>
       </c>
       <c r="R29" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S29" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T29" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H30" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I30" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J30" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S30" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T30" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H31" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I31" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J31" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K31" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L31" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R31" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S31" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T31" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,19 +24931,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H32" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I32" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J32" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K32" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24956,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R32" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S32" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T32" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H33" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I33" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J33" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S33" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T33" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H34" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I34" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J34" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K34" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L34" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R34" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S34" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T34" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,19 +25168,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H35" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I35" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J35" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K35" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25193,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R35" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S35" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T35" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H36" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I36" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J36" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S36" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T36" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H37" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I37" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J37" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K37" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L37" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R37" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S37" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T37" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,19 +25405,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H38" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I38" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J38" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K38" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25430,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R38" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S38" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T38" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H39" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I39" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J39" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S39" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T39" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H40" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I40" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J40" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K40" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L40" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R40" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S40" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T40" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,19 +25642,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.0433278923953</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H41" t="n">
-        <v>349.1224415328191</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I41" t="n">
-        <v>248.9190046445362</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J41" t="n">
-        <v>94.19388718318407</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K41" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25667,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>111.8661614571072</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R41" t="n">
-        <v>207.7686087380687</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S41" t="n">
-        <v>232.1919625200514</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T41" t="n">
-        <v>223.3639471047855</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1669538870295</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.8543720391606</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H42" t="n">
-        <v>126.7956481695613</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I42" t="n">
-        <v>111.1426883334193</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J42" t="n">
-        <v>62.8457980489157</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>141.5350185239054</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S42" t="n">
-        <v>193.6296756875513</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T42" t="n">
-        <v>215.4133639204314</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7928003659262</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H43" t="n">
-        <v>166.6425874648544</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I43" t="n">
-        <v>167.6204239903589</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J43" t="n">
-        <v>126.7458061042081</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K43" t="n">
-        <v>77.72166293489558</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L43" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>69.60865742247636</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.9228615686379</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R43" t="n">
-        <v>207.5677595208579</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S43" t="n">
-        <v>237.0417967855364</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T43" t="n">
-        <v>224.154758052356</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,19 +25879,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>419.0433278923953</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H44" t="n">
-        <v>349.1224415328191</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I44" t="n">
-        <v>248.9190046445362</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J44" t="n">
-        <v>94.19388718318407</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25904,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>111.8661614571072</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>207.7686087380687</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S44" t="n">
-        <v>232.1919625200514</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T44" t="n">
-        <v>223.3639471047855</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1669538870295</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.8543720391606</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H45" t="n">
-        <v>126.7956481695613</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I45" t="n">
-        <v>111.1426883334193</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J45" t="n">
-        <v>62.8457980489157</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>141.5350185239054</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S45" t="n">
-        <v>193.6296756875513</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T45" t="n">
-        <v>215.4133639204314</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2352910471869</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.7928003659262</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H46" t="n">
-        <v>166.6425874648544</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I46" t="n">
-        <v>167.6204239903589</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J46" t="n">
-        <v>126.7458061042081</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K46" t="n">
-        <v>77.72166293489558</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L46" t="n">
-        <v>45.8334892091311</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>39.64227122411658</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>30.60255928634805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>50.48626147098734</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>69.60865742247636</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.9228615686379</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R46" t="n">
-        <v>207.5677595208579</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S46" t="n">
-        <v>237.0417967855364</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T46" t="n">
-        <v>224.154758052356</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378673.7844600175</v>
+        <v>430681.1125781785</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378673.7844600175</v>
+        <v>435454.4354578891</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>57318.6244920368</v>
+        <v>68851.80790756166</v>
       </c>
       <c r="F2" t="n">
-        <v>57318.62449203681</v>
+        <v>68851.80790756166</v>
       </c>
       <c r="G2" t="n">
-        <v>57318.6244920368</v>
+        <v>68851.80790756166</v>
       </c>
       <c r="H2" t="n">
-        <v>57318.62449203681</v>
+        <v>68851.80790756166</v>
       </c>
       <c r="I2" t="n">
-        <v>57318.62449203681</v>
+        <v>68851.80790756167</v>
       </c>
       <c r="J2" t="n">
-        <v>57318.6244920368</v>
+        <v>68851.80790756164</v>
       </c>
       <c r="K2" t="n">
-        <v>57318.62449203681</v>
+        <v>68851.80790756167</v>
       </c>
       <c r="L2" t="n">
-        <v>57318.6244920368</v>
+        <v>68851.80790756166</v>
       </c>
       <c r="M2" t="n">
-        <v>57318.62449203681</v>
+        <v>68851.80790756166</v>
       </c>
       <c r="N2" t="n">
-        <v>57318.6244920368</v>
+        <v>68851.80790756166</v>
       </c>
       <c r="O2" t="n">
-        <v>57318.6244920368</v>
+        <v>68851.80790756167</v>
       </c>
       <c r="P2" t="n">
-        <v>57318.62449203681</v>
+        <v>70169.47747243124</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>40281.89958238632</v>
+        <v>230120.0441040565</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26472.03940852751</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="C4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="D4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="E4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="F4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="G4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="H4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="I4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="J4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="K4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="L4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="M4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="N4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="O4" t="n">
-        <v>34762.03750779631</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="P4" t="n">
-        <v>34762.03750779631</v>
+        <v>14437.57062330154</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="F5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="G5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="H5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="I5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="J5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="K5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="L5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="N5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="O5" t="n">
-        <v>1093.032277569317</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.032277569317</v>
+        <v>7111.264083311508</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17762.09065913996</v>
+        <v>-17762.09065913997</v>
       </c>
       <c r="C6" t="n">
-        <v>-17762.09065913996</v>
+        <v>-17762.09065913997</v>
       </c>
       <c r="D6" t="n">
-        <v>-17762.09065913996</v>
+        <v>-17762.09065913997</v>
       </c>
       <c r="E6" t="n">
-        <v>-18818.34487571515</v>
+        <v>-185082.7112233025</v>
       </c>
       <c r="F6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.3328807541</v>
       </c>
       <c r="G6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.3328807541</v>
       </c>
       <c r="H6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.3328807541</v>
       </c>
       <c r="I6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.33288075411</v>
       </c>
       <c r="J6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.33288075408</v>
       </c>
       <c r="K6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.33288075411</v>
       </c>
       <c r="L6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.3328807541</v>
       </c>
       <c r="M6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.3328807541</v>
       </c>
       <c r="N6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.3328807541</v>
       </c>
       <c r="O6" t="n">
-        <v>21463.55470667118</v>
+        <v>45037.33288075411</v>
       </c>
       <c r="P6" t="n">
-        <v>21463.55470667118</v>
+        <v>22148.60335729068</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="F3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="G3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="H3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="I3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="J3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="K3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="L3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="M3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="N3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="O3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="P3" t="n">
-        <v>50.1390953013448</v>
+        <v>326.2047744638306</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.1390953013448</v>
+        <v>286.431646513713</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39.77312795011767</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2015642022164613</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H11" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I11" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J11" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K11" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L11" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M11" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N11" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O11" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P11" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R11" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S11" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866829</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389299</v>
       </c>
       <c r="H12" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I12" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J12" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K12" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731483</v>
       </c>
       <c r="L12" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M12" t="n">
-        <v>27.32580693923291</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N12" t="n">
-        <v>28.04903973843816</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P12" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R12" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S12" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U12" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8038694295854958</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I13" t="n">
-        <v>2.719018479620469</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J13" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K13" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L13" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025019</v>
       </c>
       <c r="M13" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813034</v>
       </c>
       <c r="N13" t="n">
-        <v>13.8359244460252</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O13" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P13" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.571003390503064</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R13" t="n">
-        <v>4.065376481318873</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S13" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750616</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H14" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I14" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J14" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K14" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L14" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M14" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N14" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O14" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P14" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S14" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H15" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I15" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J15" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K15" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L15" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M15" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N15" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P15" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R15" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S15" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U15" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I16" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J16" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K16" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L16" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M16" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N16" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O16" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P16" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R16" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S16" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H17" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I17" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J17" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K17" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L17" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M17" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N17" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O17" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P17" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S17" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H18" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I18" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J18" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K18" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L18" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M18" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N18" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P18" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R18" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S18" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I19" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J19" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K19" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L19" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M19" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N19" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O19" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P19" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R19" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S19" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H20" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I20" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J20" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K20" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L20" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M20" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N20" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O20" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P20" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R20" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S20" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H21" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I21" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J21" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K21" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L21" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M21" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N21" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P21" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R21" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S21" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I22" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J22" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K22" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L22" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M22" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N22" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O22" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P22" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R22" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S22" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H23" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I23" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J23" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K23" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L23" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M23" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N23" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O23" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P23" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R23" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S23" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H24" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I24" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J24" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K24" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L24" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M24" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N24" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P24" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R24" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S24" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U24" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I25" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J25" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K25" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L25" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M25" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N25" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O25" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P25" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R25" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S25" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H26" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I26" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J26" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K26" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L26" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M26" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N26" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O26" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P26" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R26" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S26" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H27" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I27" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J27" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K27" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L27" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M27" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N27" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P27" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R27" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S27" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U27" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I28" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J28" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K28" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L28" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M28" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N28" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O28" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P28" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R28" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S28" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H29" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I29" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J29" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K29" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L29" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M29" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N29" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O29" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P29" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R29" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S29" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866829</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389299</v>
       </c>
       <c r="H30" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I30" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J30" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K30" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731483</v>
       </c>
       <c r="L30" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M30" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N30" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P30" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R30" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S30" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I31" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J31" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K31" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L31" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025019</v>
       </c>
       <c r="M31" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813034</v>
       </c>
       <c r="N31" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O31" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P31" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R31" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S31" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750616</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H32" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I32" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J32" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K32" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L32" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M32" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N32" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O32" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P32" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R32" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S32" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H33" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I33" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J33" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K33" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L33" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M33" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N33" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P33" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R33" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S33" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U33" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I34" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J34" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K34" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L34" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M34" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N34" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O34" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P34" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R34" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S34" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H35" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I35" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J35" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K35" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L35" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M35" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N35" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O35" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P35" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R35" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S35" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H36" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I36" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J36" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K36" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L36" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M36" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N36" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P36" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R36" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S36" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U36" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I37" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J37" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K37" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L37" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M37" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N37" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O37" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P37" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R37" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S37" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H38" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I38" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J38" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K38" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L38" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M38" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N38" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O38" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P38" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R38" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S38" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H39" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I39" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J39" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K39" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L39" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M39" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N39" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P39" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R39" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S39" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U39" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I40" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J40" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K40" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L40" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M40" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N40" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O40" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P40" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R40" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S40" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H41" t="n">
-        <v>2.064269385949336</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I41" t="n">
-        <v>7.770803905950134</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J41" t="n">
-        <v>17.1075097078694</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K41" t="n">
-        <v>25.63972238769222</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L41" t="n">
-        <v>31.80834284127425</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M41" t="n">
-        <v>35.39291022244124</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N41" t="n">
-        <v>35.96560451198877</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O41" t="n">
-        <v>33.96130047619883</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P41" t="n">
-        <v>28.98518423397994</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.76666624210291</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R41" t="n">
-        <v>12.6615073174798</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S41" t="n">
-        <v>4.593144258007618</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H42" t="n">
-        <v>1.041568753335484</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I42" t="n">
-        <v>3.713131114297705</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J42" t="n">
-        <v>10.18911558383272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K42" t="n">
-        <v>17.41482143122275</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L42" t="n">
-        <v>23.41637653672712</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M42" t="n">
-        <v>27.32580693923292</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N42" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>25.65939153596275</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P42" t="n">
-        <v>20.59392387952783</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.76649273255037</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R42" t="n">
-        <v>6.695934274394691</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S42" t="n">
-        <v>2.003198760388633</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U42" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8038694295854959</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I43" t="n">
-        <v>2.71901847962047</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J43" t="n">
-        <v>6.392323674730466</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K43" t="n">
-        <v>10.50455144182273</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L43" t="n">
-        <v>13.44220925505234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M43" t="n">
-        <v>14.17292492264079</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N43" t="n">
-        <v>13.83592444602521</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O43" t="n">
-        <v>12.779715635169</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P43" t="n">
-        <v>10.9352544899851</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.571003390503065</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R43" t="n">
-        <v>4.065376481318874</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S43" t="n">
-        <v>1.575682716273409</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2015642022164614</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H44" t="n">
-        <v>2.064269385949336</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I44" t="n">
-        <v>7.770803905950134</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J44" t="n">
-        <v>17.1075097078694</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K44" t="n">
-        <v>25.63972238769222</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L44" t="n">
-        <v>31.80834284127425</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M44" t="n">
-        <v>35.39291022244124</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N44" t="n">
-        <v>35.96560451198877</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O44" t="n">
-        <v>33.96130047619883</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P44" t="n">
-        <v>28.98518423397994</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.76666624210291</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R44" t="n">
-        <v>12.6615073174798</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S44" t="n">
-        <v>4.593144258007618</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8823472952025601</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H45" t="n">
-        <v>1.041568753335484</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I45" t="n">
-        <v>3.713131114297705</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J45" t="n">
-        <v>10.18911558383272</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K45" t="n">
-        <v>17.41482143122275</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L45" t="n">
-        <v>23.41637653672712</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M45" t="n">
-        <v>27.32580693923292</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
-        <v>28.04903973843817</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>25.65939153596275</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P45" t="n">
-        <v>20.59392387952783</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.76649273255037</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R45" t="n">
-        <v>6.695934274394691</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S45" t="n">
-        <v>2.003198760388633</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4346964960559986</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U45" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8038694295854959</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I46" t="n">
-        <v>2.71901847962047</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J46" t="n">
-        <v>6.392323674730466</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K46" t="n">
-        <v>10.50455144182273</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L46" t="n">
-        <v>13.44220925505234</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M46" t="n">
-        <v>14.17292492264079</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N46" t="n">
-        <v>13.83592444602521</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O46" t="n">
-        <v>12.779715635169</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P46" t="n">
-        <v>10.9352544899851</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.571003390503065</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R46" t="n">
-        <v>4.065376481318874</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S46" t="n">
-        <v>1.575682716273409</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3863176195349516</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.03208571552103255</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55918.78125744943</v>
+        <v>-75838.01171751737</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4179101.575759708</v>
+        <v>4415897.408027251</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23277501.00355298</v>
+        <v>23195395.25548391</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4762417.742781037</v>
+        <v>4786748.826599231</v>
       </c>
     </row>
     <row r="11">
@@ -8692,22 +8692,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L11" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M11" t="n">
-        <v>78.8318885537511</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N11" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O11" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P11" t="n">
-        <v>116.5194153913582</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q11" t="n">
         <v>137.5801139476182</v>
@@ -8771,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>68.68019772140312</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L12" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M12" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P12" t="n">
-        <v>45.801031517992</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q12" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>87.76745019286052</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M13" t="n">
-        <v>88.52321246794781</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N13" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O13" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8929,22 +8929,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L14" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M14" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N14" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O14" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P14" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q14" t="n">
         <v>137.5801139476182</v>
@@ -9008,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L15" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M15" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P15" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M16" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N16" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O16" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9166,22 +9166,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L17" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M17" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N17" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O17" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P17" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q17" t="n">
         <v>137.5801139476182</v>
@@ -9245,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L18" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M18" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P18" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q18" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M19" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N19" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O19" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9403,22 +9403,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L20" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M20" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N20" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O20" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P20" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q20" t="n">
         <v>137.5801139476182</v>
@@ -9482,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L21" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M21" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P21" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q21" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M22" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N22" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O22" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9640,22 +9640,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L23" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M23" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N23" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O23" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P23" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q23" t="n">
         <v>137.5801139476182</v>
@@ -9719,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L24" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M24" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P24" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q24" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M25" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N25" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O25" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9877,22 +9877,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L26" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M26" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N26" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O26" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P26" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q26" t="n">
         <v>137.5801139476182</v>
@@ -9956,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L27" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M27" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P27" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q27" t="n">
-        <v>92.13336211952077</v>
+        <v>86.2606715564213</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M28" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N28" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O28" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10114,22 +10114,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L29" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M29" t="n">
-        <v>78.8318885537511</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N29" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O29" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P29" t="n">
-        <v>116.5194153913582</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q29" t="n">
         <v>137.5801139476182</v>
@@ -10193,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>68.68019772140312</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L30" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M30" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P30" t="n">
-        <v>45.801031517992</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q30" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>87.76745019286052</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M31" t="n">
-        <v>88.52321246794781</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N31" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O31" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10351,22 +10351,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L32" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M32" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N32" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O32" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P32" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q32" t="n">
         <v>137.5801139476182</v>
@@ -10430,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L33" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M33" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P33" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q33" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M34" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N34" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O34" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10588,22 +10588,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L35" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M35" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N35" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O35" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P35" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
@@ -10667,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L36" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M36" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P36" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q36" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M37" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N37" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O37" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10825,22 +10825,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L38" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M38" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N38" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O38" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P38" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10904,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L39" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M39" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P39" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q39" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M40" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N40" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O40" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11062,22 +11062,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>122.0365346358061</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L41" t="n">
-        <v>105.9222139730819</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M41" t="n">
-        <v>78.83188855375113</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N41" t="n">
-        <v>74.42176767202952</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O41" t="n">
-        <v>86.70771710415687</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P41" t="n">
-        <v>116.5194153913583</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11141,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>68.68019772140313</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L42" t="n">
-        <v>35.26465785350914</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M42" t="n">
-        <v>17.29827403488881</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>27.38196984081287</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P42" t="n">
-        <v>45.80103151799199</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q42" t="n">
-        <v>92.13336211952077</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>87.76745019286051</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M43" t="n">
-        <v>88.5232124679478</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N43" t="n">
-        <v>76.73531661208723</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O43" t="n">
-        <v>95.90977625558899</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11299,25 +11299,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>101.6976762459175</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L44" t="n">
-        <v>80.69006165554137</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M44" t="n">
-        <v>50.75625738522407</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N44" t="n">
-        <v>45.89184343902701</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O44" t="n">
-        <v>59.7677186643362</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P44" t="n">
-        <v>93.52675000186332</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q44" t="n">
-        <v>129.5990890302214</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11378,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>54.86578968612498</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L45" t="n">
-        <v>16.68948144623957</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>7.027508785057847</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46478203976346</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.21301196989599</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>77.10433979128307</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M46" t="n">
-        <v>77.2804576278842</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N46" t="n">
-        <v>65.75988935332771</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O46" t="n">
-        <v>85.77219275774588</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23272,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H11" t="n">
-        <v>339.3940753414475</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I11" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J11" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.285509237068567</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S11" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T11" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U11" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H12" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I12" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J12" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S12" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T12" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H13" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I13" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J13" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K13" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R13" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S13" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T13" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H14" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I14" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J14" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S14" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T14" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U14" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H15" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I15" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J15" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S15" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T15" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H16" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I16" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J16" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K16" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q16" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R16" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S16" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T16" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H17" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I17" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J17" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S17" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T17" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U17" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H18" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I18" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J18" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S18" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T18" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H19" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I19" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J19" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K19" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R19" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S19" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T19" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H20" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I20" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J20" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S20" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T20" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U20" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H21" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I21" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J21" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S21" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T21" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H22" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I22" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J22" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K22" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R22" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S22" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T22" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H23" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I23" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J23" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S23" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T23" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U23" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H24" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I24" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J24" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S24" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T24" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H25" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I25" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J25" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K25" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q25" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R25" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S25" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T25" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H26" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I26" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J26" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S26" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T26" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U26" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H27" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I27" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J27" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S27" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T27" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H28" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I28" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J28" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K28" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256763</v>
       </c>
       <c r="Q28" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R28" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S28" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T28" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H29" t="n">
-        <v>339.3940753414475</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I29" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J29" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.285509237068567</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S29" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T29" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U29" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H30" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I30" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J30" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S30" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T30" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H31" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I31" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J31" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K31" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R31" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S31" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T31" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H32" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I32" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J32" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S32" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T32" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U32" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H33" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I33" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J33" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S33" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T33" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H34" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I34" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J34" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K34" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R34" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S34" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T34" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H35" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I35" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J35" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S35" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T35" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U35" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H36" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I36" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J36" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S36" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T36" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H37" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I37" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J37" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K37" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R37" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S37" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T37" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H38" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I38" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J38" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S38" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T38" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U38" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H39" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I39" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J39" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S39" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T39" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H40" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I40" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J40" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K40" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R40" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S40" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T40" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.0934080885264</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H41" t="n">
-        <v>339.3940753414476</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I41" t="n">
-        <v>212.2972214058836</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J41" t="n">
-        <v>13.57063122957307</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.285509237068553</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>148.0982088582942</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S41" t="n">
-        <v>210.5456649893907</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T41" t="n">
-        <v>219.2056731633497</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U41" t="n">
-        <v>250.09096030272</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.3461201365529</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H42" t="n">
-        <v>121.887004794376</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I42" t="n">
-        <v>93.64366449363538</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J42" t="n">
-        <v>14.8271391275419</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>109.9788170619971</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S42" t="n">
-        <v>184.1891195141138</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T42" t="n">
-        <v>213.3647520849204</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H43" t="n">
-        <v>162.8541593486954</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I43" t="n">
-        <v>154.8063951475636</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J43" t="n">
-        <v>96.62044264882138</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K43" t="n">
-        <v>28.2164366317142</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>18.07363936789694</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.24268633557031</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R43" t="n">
-        <v>188.4086946307534</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S43" t="n">
-        <v>229.6160128400592</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T43" t="n">
-        <v>222.3341433135066</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25879,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.9335161168677</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H44" t="n">
-        <v>337.7565816866972</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I44" t="n">
-        <v>206.1329861685091</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>138.0543947935843</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S44" t="n">
-        <v>206.9021266852166</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T44" t="n">
-        <v>218.5057460574135</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0781689449873</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.2605703896413</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H45" t="n">
-        <v>121.0607743439406</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I45" t="n">
-        <v>90.69820171619743</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J45" t="n">
-        <v>6.744564135339203</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>104.6672283897153</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S45" t="n">
-        <v>182.6000704870501</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T45" t="n">
-        <v>213.0199265699567</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1962251491922</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.2949770100594</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2164852645116</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I46" t="n">
-        <v>152.6495179793835</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J46" t="n">
-        <v>91.54969484442688</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K46" t="n">
-        <v>19.88364031691904</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>9.399185363825367</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q46" t="n">
-        <v>93.23694401510255</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R46" t="n">
-        <v>185.183811174339</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S46" t="n">
-        <v>228.3660933928399</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T46" t="n">
-        <v>222.0276946227434</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6344225367242</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430681.1125781785</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>435454.4354578891</v>
+        <v>433802.8678667126</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>68851.80790756166</v>
+        <v>69645.8282718761</v>
       </c>
       <c r="F2" t="n">
-        <v>68851.80790756166</v>
+        <v>69645.8282718761</v>
       </c>
       <c r="G2" t="n">
-        <v>68851.80790756166</v>
+        <v>69645.8282718761</v>
       </c>
       <c r="H2" t="n">
-        <v>68851.80790756166</v>
+        <v>69645.8282718761</v>
       </c>
       <c r="I2" t="n">
-        <v>68851.80790756167</v>
+        <v>69645.82827187613</v>
       </c>
       <c r="J2" t="n">
-        <v>68851.80790756164</v>
+        <v>69645.82827187613</v>
       </c>
       <c r="K2" t="n">
-        <v>68851.80790756167</v>
+        <v>69645.82827187613</v>
       </c>
       <c r="L2" t="n">
-        <v>68851.80790756166</v>
+        <v>69645.82827187613</v>
       </c>
       <c r="M2" t="n">
-        <v>68851.80790756166</v>
+        <v>69645.82827187613</v>
       </c>
       <c r="N2" t="n">
-        <v>68851.80790756166</v>
+        <v>69645.82827187613</v>
       </c>
       <c r="O2" t="n">
-        <v>68851.80790756167</v>
+        <v>69645.82827187612</v>
       </c>
       <c r="P2" t="n">
-        <v>70169.47747243124</v>
+        <v>69645.82827187613</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>230120.0441040565</v>
+        <v>247304.0237956926</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>26472.03940852751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="C4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="D4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="E4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="F4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="G4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="H4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="I4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="J4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="K4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="L4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="M4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="N4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="O4" t="n">
-        <v>17570.26513280862</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="P4" t="n">
-        <v>14437.57062330154</v>
+        <v>15927.89823545574</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="F5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="G5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="H5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="I5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="J5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="K5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="L5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="M5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="N5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="O5" t="n">
-        <v>6244.209893998943</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="P5" t="n">
-        <v>7111.264083311508</v>
+        <v>6710.48990201194</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17762.09065913997</v>
+        <v>-34566.55126698336</v>
       </c>
       <c r="C6" t="n">
-        <v>-17762.09065913997</v>
+        <v>-34566.55126698336</v>
       </c>
       <c r="D6" t="n">
-        <v>-17762.09065913997</v>
+        <v>-34566.55126698336</v>
       </c>
       <c r="E6" t="n">
-        <v>-185082.7112233025</v>
+        <v>-215424.96455556</v>
       </c>
       <c r="F6" t="n">
-        <v>45037.3328807541</v>
+        <v>31879.05924013264</v>
       </c>
       <c r="G6" t="n">
-        <v>45037.3328807541</v>
+        <v>31879.05924013264</v>
       </c>
       <c r="H6" t="n">
-        <v>45037.3328807541</v>
+        <v>31879.05924013264</v>
       </c>
       <c r="I6" t="n">
-        <v>45037.33288075411</v>
+        <v>31879.05924013267</v>
       </c>
       <c r="J6" t="n">
-        <v>45037.33288075408</v>
+        <v>31879.05924013267</v>
       </c>
       <c r="K6" t="n">
-        <v>45037.33288075411</v>
+        <v>31879.05924013267</v>
       </c>
       <c r="L6" t="n">
-        <v>45037.3328807541</v>
+        <v>31879.05924013267</v>
       </c>
       <c r="M6" t="n">
-        <v>45037.3328807541</v>
+        <v>31879.05924013267</v>
       </c>
       <c r="N6" t="n">
-        <v>45037.3328807541</v>
+        <v>31879.05924013267</v>
       </c>
       <c r="O6" t="n">
-        <v>45037.33288075411</v>
+        <v>31879.05924013266</v>
       </c>
       <c r="P6" t="n">
-        <v>22148.60335729068</v>
+        <v>31879.05924013267</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="F3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="G3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="H3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="I3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="J3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="K3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="L3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="M3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="N3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="O3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="P3" t="n">
-        <v>326.2047744638306</v>
+        <v>307.8206377069697</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>286.431646513713</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.77312795011767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H11" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I11" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J11" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K11" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L11" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M11" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N11" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P11" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R11" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S11" t="n">
-        <v>26.23944178866829</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T11" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6160982585389299</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H12" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I12" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J12" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K12" t="n">
-        <v>99.48635782731483</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L12" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M12" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N12" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P12" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R12" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S12" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T12" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H13" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I13" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J13" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K13" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L13" t="n">
-        <v>76.79185487025019</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M13" t="n">
-        <v>80.96624394813034</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N13" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O13" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P13" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R13" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S13" t="n">
-        <v>9.001466661750616</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T13" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H14" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I14" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J14" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K14" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L14" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M14" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N14" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O14" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P14" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R14" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S14" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T14" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H15" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I15" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J15" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K15" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L15" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M15" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N15" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P15" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R15" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S15" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T15" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H16" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I16" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J16" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K16" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L16" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M16" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N16" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O16" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P16" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R16" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S16" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T16" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H17" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I17" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J17" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K17" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L17" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M17" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N17" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P17" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R17" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S17" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T17" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H18" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I18" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J18" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K18" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L18" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M18" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N18" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P18" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R18" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S18" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T18" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H19" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I19" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J19" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K19" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L19" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M19" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N19" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O19" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P19" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R19" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S19" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T19" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H20" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I20" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J20" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K20" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L20" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M20" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N20" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O20" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P20" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R20" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S20" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T20" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H21" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I21" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J21" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K21" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L21" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M21" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N21" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P21" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R21" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S21" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T21" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H22" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I22" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J22" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K22" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L22" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M22" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N22" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O22" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P22" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R22" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S22" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T22" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H23" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I23" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J23" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K23" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L23" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M23" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N23" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O23" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P23" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R23" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S23" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T23" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H24" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I24" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J24" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K24" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L24" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M24" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N24" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P24" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R24" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S24" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T24" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H25" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I25" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J25" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K25" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L25" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M25" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N25" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O25" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P25" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R25" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S25" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T25" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329525</v>
       </c>
       <c r="H26" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I26" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J26" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K26" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L26" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M26" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N26" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O26" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P26" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R26" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S26" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T26" t="n">
-        <v>5.040621236638304</v>
+        <v>5.417024488692501</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H27" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I27" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J27" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K27" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L27" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M27" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N27" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P27" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852497</v>
       </c>
       <c r="R27" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528174</v>
       </c>
       <c r="S27" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T27" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553822</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H28" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I28" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J28" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K28" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L28" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M28" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N28" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O28" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P28" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989383</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R28" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S28" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T28" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332388</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H29" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I29" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J29" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K29" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L29" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M29" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N29" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O29" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P29" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R29" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S29" t="n">
-        <v>26.23944178866829</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T29" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6160982585389299</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H30" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I30" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J30" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K30" t="n">
-        <v>99.48635782731483</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L30" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M30" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N30" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P30" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R30" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S30" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T30" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H31" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I31" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J31" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K31" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L31" t="n">
-        <v>76.79185487025019</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M31" t="n">
-        <v>80.96624394813034</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N31" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O31" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P31" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R31" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S31" t="n">
-        <v>9.001466661750616</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T31" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H32" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I32" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J32" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K32" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L32" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M32" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N32" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O32" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P32" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R32" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S32" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T32" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H33" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I33" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J33" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K33" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L33" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M33" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N33" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P33" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R33" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S33" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T33" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H34" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I34" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J34" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K34" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L34" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M34" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N34" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O34" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P34" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R34" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S34" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T34" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H35" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I35" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J35" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K35" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L35" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M35" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N35" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O35" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P35" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q35" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R35" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S35" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T35" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H36" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I36" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J36" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K36" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L36" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M36" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N36" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P36" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R36" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S36" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T36" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H37" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I37" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J37" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K37" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L37" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M37" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N37" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O37" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P37" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R37" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S37" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T37" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H38" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I38" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J38" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K38" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L38" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M38" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N38" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O38" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P38" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q38" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R38" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S38" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T38" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H39" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I39" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J39" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K39" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L39" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M39" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N39" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P39" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R39" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S39" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T39" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H40" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I40" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J40" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K40" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L40" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M40" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N40" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O40" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P40" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R40" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S40" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T40" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.151484006085277</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H41" t="n">
-        <v>11.79263557732085</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I41" t="n">
-        <v>44.3925871446027</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J41" t="n">
-        <v>97.7307656614804</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K41" t="n">
-        <v>146.4730836390702</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L41" t="n">
-        <v>181.7128122903026</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M41" t="n">
-        <v>202.1905159835216</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N41" t="n">
-        <v>205.4621699158114</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O41" t="n">
-        <v>194.0121008303009</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P41" t="n">
-        <v>165.5848394300706</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q41" t="n">
-        <v>124.3473184621416</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R41" t="n">
-        <v>72.33190719725437</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S41" t="n">
-        <v>26.23944178866828</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T41" t="n">
-        <v>5.040621236638304</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6160982585389297</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H42" t="n">
-        <v>5.950212128520717</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I42" t="n">
-        <v>21.21215495408158</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J42" t="n">
-        <v>58.20777450520653</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K42" t="n">
-        <v>99.48635782731482</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L42" t="n">
-        <v>133.7716854779374</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M42" t="n">
-        <v>156.1052473499736</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N42" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>146.5854483814093</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P42" t="n">
-        <v>117.6477455274909</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.6444022654255</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R42" t="n">
-        <v>38.25213573630304</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S42" t="n">
-        <v>11.44375493382617</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T42" t="n">
-        <v>2.483308331567001</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H43" t="n">
-        <v>4.59229754574445</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I43" t="n">
-        <v>15.53304732241578</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J43" t="n">
-        <v>36.51768713011714</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K43" t="n">
-        <v>60.00977774500411</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L43" t="n">
-        <v>76.79185487025021</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M43" t="n">
-        <v>80.96624394813036</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N43" t="n">
-        <v>79.04104763549726</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O43" t="n">
-        <v>73.00720065565919</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P43" t="n">
-        <v>62.47027254456452</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.25117862357066</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R43" t="n">
-        <v>23.22444137142334</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S43" t="n">
-        <v>9.001466661750614</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T43" t="n">
-        <v>2.206932358384345</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311375977744042</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H44" t="n">
-        <v>13.43012923207117</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55682238197722</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3013968910535</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8119420289588</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L44" t="n">
-        <v>206.944964607843</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2661471520487</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N44" t="n">
-        <v>233.9920941488139</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9520992701216</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5775048195655</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.613852616607</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R44" t="n">
-        <v>82.37572126196423</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88298009284238</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740548342574546</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049100782195233</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H45" t="n">
-        <v>6.776442578956182</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15761773151954</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J45" t="n">
-        <v>66.29034949740922</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K45" t="n">
-        <v>113.300765862593</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L45" t="n">
-        <v>152.3468618852069</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N45" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>166.9399094371643</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9839950057194</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.56475241505028</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R45" t="n">
-        <v>43.5637244085848</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03280396088983</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T45" t="n">
-        <v>2.828133846530757</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04616105299016474</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229971629928304</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68992449059593</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58843493451165</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K46" t="n">
-        <v>68.34257405979926</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L46" t="n">
-        <v>87.45496527182765</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20899878819395</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01647489425679</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O46" t="n">
-        <v>83.1447841535023</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P46" t="n">
-        <v>71.14472654863609</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.25692094403843</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R46" t="n">
-        <v>26.4493248278378</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25138610896989</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513381049147547</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208571552103255</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
